--- a/biology/Neurosciences/Nerf_médian/Nerf_médian.xlsx
+++ b/biology/Neurosciences/Nerf_médian/Nerf_médian.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Nerf_m%C3%A9dian</t>
+          <t>Nerf_médian</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf médian est un nerf du membre supérieur chez l'humain. C'est le nerf sensitivo-moteur de la face antérieure de l'avant-bras et de la main. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Nerf_m%C3%A9dian</t>
+          <t>Nerf_médian</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,54 +525,216 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Origine
-Le nerf médian naît de la branche médiale du faisceau antéro-latéral et de la branche latérale du faisceau antéro-médial du plexus brachial dans la région axillaire. Les racines rachidiennes dont dépend le nerf médian sont C5, C6, C7, C8 et T1.
-Trajet
-Creux axillaire
-Le nerf médian nait dans le creux axillaire en arrière du muscle petit pectoral en suivant le bord antéro-externe de l'artère axillaire.
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf médian naît de la branche médiale du faisceau antéro-latéral et de la branche latérale du faisceau antéro-médial du plexus brachial dans la région axillaire. Les racines rachidiennes dont dépend le nerf médian sont C5, C6, C7, C8 et T1.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Nerf_médian</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Creux axillaire</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf médian nait dans le creux axillaire en arrière du muscle petit pectoral en suivant le bord antéro-externe de l'artère axillaire.
 Il se situe en dedans du nerf musculo-cutané, et en dehors de la veine axillaire, du nerf ulnaire, du nerf cutané médial de l'avant-bras et son nerf accessoire.
-Bras
-Le nerf médian parcourt le canal brachial, dans la loge brachiale antérieure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Nerf_médian</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bras</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf médian parcourt le canal brachial, dans la loge brachiale antérieure.
 Le canal brachial est limité par le muscle biceps brachial en avant, le septum intermusculaire médial du bras en arrière, le fascia brachial en dedans et le muscle coracobrachial en dehors.
 Au tiers moyen du bras il croise en X allongé et de dehors en dedans l'artère brachiale.
 Jusqu'au milieu du bras, le nerf est accompagné par le nerf ulnaire.
 À ce niveau il chemine au tiers supérieur devant le septum intermusculaire médial du bras puis en avant du brachial et en arrière du biceps brachial.
 Il traverse le sillon bicipital médial en dedans de l'artère brachiale et entre le tendon du muscle biceps brachial en dehors, le muscle brachial en arrière, le muscle rond pronateur en dedans et le fascia antébrachial en avant.
-Avant-bras
-Le nerf médian descend de façon verticale et médiane  dans la loge antébrachiale antérieure. Il passe entre les muscles fléchisseur superficiel et le fléchisseur profond des doigts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Nerf_médian</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Avant-bras</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nerf médian descend de façon verticale et médiane  dans la loge antébrachiale antérieure. Il passe entre les muscles fléchisseur superficiel et le fléchisseur profond des doigts.
 En bas de l'avant-bras, le nerf devient superficiel en passant entre le tendon du muscle fléchisseur radial du carpe en dehors et les tendons du muscle fléchisseur superficiel des doigts en dedans.
-Poignet
-Au niveau du poignet, le nerf médian passe par le canal carpien accompagné par les tendons des muscles fléchisseurs des doigts.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Nerf_médian</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Anatomie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Trajet</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Poignet</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Au niveau du poignet, le nerf médian passe par le canal carpien accompagné par les tendons des muscles fléchisseurs des doigts.
 Le nerf se termine au niveau du bord inférieur du rétinaculum des fléchisseurs.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Nerf_m%C3%A9dian</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Nerf_médian</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>Branches collatérales</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>Au cours de son parcours il donne les branches suivantes :
 le nerf interosseux antébrachial antérieur,
@@ -576,31 +750,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Nerf_m%C3%A9dian</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Nerf_médian</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Branches terminales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
         <is>
           <t>Au niveau du bord inférieur du rétinaculum des fléchisseurs , le nerf médian se divise en cinq branches terminales les trois nerfs digitaux palmaires communs du nerf médian et la branche musculaire récurrente pour les muscles de l'éminence thénar.
 Cette dernière donne :
@@ -610,31 +786,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Nerf_m%C3%A9dian</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Nerf_médian</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Zone d'innervation</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Le nerf médian est moteur de la pronation, de la flexion du pouce, de l'index et du majeur, de la flexion du poignet (sauf l'inclinaison ulnaire). Il effectue aussi l'antépulsion et l'opposition du pouce.
 Il est également sensitif :
@@ -644,65 +822,69 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Nerf_m%C3%A9dian</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Nerf_médian</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Variations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
         <is>
           <t>Il existe des variations non pathologiques du nerf médian :
-La bifurcation du nerf médian se produit généralement après la sortie du nerf du canal carpien mais 5 à 10 % des personnes ont le nerf médian qui bifurque plus proximalement dans le canal carpien, le poignet ou l'avant-bras[1].
+La bifurcation du nerf médian se produit généralement après la sortie du nerf du canal carpien mais 5 à 10 % des personnes ont le nerf médian qui bifurque plus proximalement dans le canal carpien, le poignet ou l'avant-bras.
 Pendant la gestation, l'artère satellite du nerf médian qui vascularise la main se rétracte. Cependant, chez certaines personnes, l'artère Il peut ne se rétracte pas et suit le trajet à côté du nerf médian dans la main.
-Il peut exister une communication motrice entre le nerf médian et le nerf ulnaire au niveau de l'avant bras (anastomose de Martin-Gruber)[2].
-Il peut exister une communication motrice entre la branche musculaire récurrente du nerf médian et la branche profonde motrice du nerf ulnaire au niveau palmaire (anastomose de Riche-Cannieu)[3].</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Nerf_m%C3%A9dian</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Neurosciences/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+Il peut exister une communication motrice entre le nerf médian et le nerf ulnaire au niveau de l'avant bras (anastomose de Martin-Gruber).
+Il peut exister une communication motrice entre la branche musculaire récurrente du nerf médian et la branche profonde motrice du nerf ulnaire au niveau palmaire (anastomose de Riche-Cannieu).</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Nerf_médian</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Neurosciences/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Nerf_m%C3%A9dian</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nerf médian peut subir des lésions tout au long de son parcours du plexus brachial jusqu'à sa terminaison.
 Les signes de sa lésion comprennent :
